--- a/workouts/Gym Workout.xlsx
+++ b/workouts/Gym Workout.xlsx
@@ -253,6 +253,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -273,17 +274,20 @@
       <sz val="24"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,11 +337,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,12 +382,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.33673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
